--- a/immigration-analytics/src/main/resources/template/Language_Training_Client_Exit.xlsx
+++ b/immigration-analytics/src/main/resources/template/Language_Training_Client_Exit.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t xml:space="preserve">Immigration, Refugees and Citizenship Canada
 iCARE - Immigration Contribution Agreement Reporting Environment
@@ -254,48 +254,6 @@
   </si>
   <si>
     <t xml:space="preserve">Reason for update</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[BUID:305939,RID:,ORP:4/5,DTS:2018-08-07 10:05:04][1] (Client) Unable to validate against database. / (Client) Impossible de valider dans la base de données.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOSS/GCMS Client ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12345678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1978-05-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L-CCSMARS18008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Completed the course</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Found employment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infant (6-18 months)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Short term</t>
-  </si>
-  <si>
-    <t xml:space="preserve">English</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amend record</t>
   </si>
 </sst>
 </file>
@@ -560,10 +518,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AL1004"/>
+  <dimension ref="A1:AL1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -582,7 +540,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="35.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="1" width="36.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="1" width="36.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="25.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="27.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="53.62"/>
@@ -882,119 +840,45 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>77</v>
-      </c>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7"/>
       <c r="B4" s="7"/>
-      <c r="C4" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="V4" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="W4" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="X4" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y4" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z4" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA4" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB4" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC4" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD4" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE4" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF4" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG4" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="AH4" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI4" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ4" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK4" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL4" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="9"/>
+      <c r="AJ4" s="9"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7"/>
@@ -1613,7 +1497,7 @@
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
+      <c r="Q20" s="10"/>
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
       <c r="T20" s="8"/>
@@ -1714,12 +1598,12 @@
       <c r="AI22" s="9"/>
       <c r="AJ22" s="9"/>
       <c r="AK22" s="8"/>
-      <c r="AL22" s="8"/>
+      <c r="AL22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
+      <c r="C23" s="10"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
@@ -1815,16 +1699,16 @@
       <c r="P25" s="8"/>
       <c r="Q25" s="10"/>
       <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="8"/>
-      <c r="AA25" s="8"/>
-      <c r="AB25" s="8"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="11"/>
       <c r="AC25" s="8"/>
       <c r="AD25" s="8"/>
       <c r="AE25" s="8"/>
@@ -1858,13 +1742,13 @@
       <c r="S26" s="10"/>
       <c r="T26" s="11"/>
       <c r="U26" s="10"/>
-      <c r="V26" s="11"/>
+      <c r="V26" s="10"/>
       <c r="W26" s="10"/>
-      <c r="X26" s="11"/>
+      <c r="X26" s="10"/>
       <c r="Y26" s="10"/>
-      <c r="Z26" s="11"/>
+      <c r="Z26" s="10"/>
       <c r="AA26" s="10"/>
-      <c r="AB26" s="11"/>
+      <c r="AB26" s="10"/>
       <c r="AC26" s="8"/>
       <c r="AD26" s="8"/>
       <c r="AE26" s="8"/>
@@ -1890,12 +1774,12 @@
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
+      <c r="N27" s="11"/>
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
       <c r="Q27" s="10"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="10"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
       <c r="T27" s="11"/>
       <c r="U27" s="10"/>
       <c r="V27" s="10"/>
@@ -1970,13 +1854,13 @@
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
-      <c r="N29" s="11"/>
+      <c r="N29" s="10"/>
       <c r="O29" s="8"/>
       <c r="P29" s="8"/>
       <c r="Q29" s="10"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
       <c r="U29" s="10"/>
       <c r="V29" s="10"/>
       <c r="W29" s="10"/>
@@ -2025,8 +1909,8 @@
       <c r="Z30" s="10"/>
       <c r="AA30" s="10"/>
       <c r="AB30" s="10"/>
-      <c r="AC30" s="8"/>
-      <c r="AD30" s="8"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="10"/>
       <c r="AE30" s="8"/>
       <c r="AF30" s="9"/>
       <c r="AG30" s="9"/>
@@ -2065,15 +1949,15 @@
       <c r="Z31" s="10"/>
       <c r="AA31" s="10"/>
       <c r="AB31" s="10"/>
-      <c r="AC31" s="10"/>
-      <c r="AD31" s="10"/>
-      <c r="AE31" s="8"/>
+      <c r="AC31" s="11"/>
+      <c r="AD31" s="11"/>
+      <c r="AE31" s="11"/>
       <c r="AF31" s="9"/>
       <c r="AG31" s="9"/>
-      <c r="AH31" s="8"/>
+      <c r="AH31" s="11"/>
       <c r="AI31" s="9"/>
       <c r="AJ31" s="9"/>
-      <c r="AK31" s="8"/>
+      <c r="AK31" s="11"/>
       <c r="AL31" s="10"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2145,15 +2029,15 @@
       <c r="Z33" s="10"/>
       <c r="AA33" s="10"/>
       <c r="AB33" s="10"/>
-      <c r="AC33" s="11"/>
-      <c r="AD33" s="11"/>
-      <c r="AE33" s="11"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="10"/>
+      <c r="AE33" s="10"/>
       <c r="AF33" s="9"/>
       <c r="AG33" s="9"/>
-      <c r="AH33" s="11"/>
+      <c r="AH33" s="10"/>
       <c r="AI33" s="9"/>
       <c r="AJ33" s="9"/>
-      <c r="AK33" s="11"/>
+      <c r="AK33" s="10"/>
       <c r="AL33" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2211,8 +2095,8 @@
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
       <c r="N35" s="10"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
       <c r="R35" s="10"/>
       <c r="S35" s="10"/>
@@ -2248,8 +2132,8 @@
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
       <c r="P36" s="10"/>
@@ -2286,8 +2170,8 @@
       <c r="G37" s="8"/>
       <c r="H37" s="7"/>
       <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
@@ -2563,7 +2447,7 @@
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="8"/>
+      <c r="G44" s="10"/>
       <c r="H44" s="7"/>
       <c r="I44" s="8"/>
       <c r="J44" s="10"/>
@@ -2685,7 +2569,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="10"/>
       <c r="H47" s="7"/>
-      <c r="I47" s="8"/>
+      <c r="I47" s="10"/>
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
       <c r="L47" s="10"/>
@@ -4428,11 +4312,11 @@
       <c r="AC90" s="10"/>
       <c r="AD90" s="10"/>
       <c r="AE90" s="10"/>
-      <c r="AF90" s="9"/>
-      <c r="AG90" s="9"/>
+      <c r="AF90" s="10"/>
+      <c r="AG90" s="10"/>
       <c r="AH90" s="10"/>
-      <c r="AI90" s="9"/>
-      <c r="AJ90" s="9"/>
+      <c r="AI90" s="10"/>
+      <c r="AJ90" s="10"/>
       <c r="AK90" s="10"/>
       <c r="AL90" s="10"/>
     </row>
@@ -40956,46 +40840,7 @@
       <c r="AK1003" s="10"/>
       <c r="AL1003" s="10"/>
     </row>
-    <row r="1004" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1004" s="7"/>
-      <c r="B1004" s="7"/>
-      <c r="C1004" s="10"/>
-      <c r="D1004" s="7"/>
-      <c r="E1004" s="7"/>
-      <c r="F1004" s="7"/>
-      <c r="G1004" s="10"/>
-      <c r="H1004" s="7"/>
-      <c r="I1004" s="10"/>
-      <c r="J1004" s="10"/>
-      <c r="K1004" s="10"/>
-      <c r="L1004" s="10"/>
-      <c r="M1004" s="10"/>
-      <c r="N1004" s="10"/>
-      <c r="O1004" s="10"/>
-      <c r="P1004" s="10"/>
-      <c r="Q1004" s="10"/>
-      <c r="R1004" s="10"/>
-      <c r="S1004" s="10"/>
-      <c r="T1004" s="10"/>
-      <c r="U1004" s="10"/>
-      <c r="V1004" s="10"/>
-      <c r="W1004" s="10"/>
-      <c r="X1004" s="10"/>
-      <c r="Y1004" s="10"/>
-      <c r="Z1004" s="10"/>
-      <c r="AA1004" s="10"/>
-      <c r="AB1004" s="10"/>
-      <c r="AC1004" s="10"/>
-      <c r="AD1004" s="10"/>
-      <c r="AE1004" s="10"/>
-      <c r="AF1004" s="10"/>
-      <c r="AG1004" s="10"/>
-      <c r="AH1004" s="10"/>
-      <c r="AI1004" s="10"/>
-      <c r="AJ1004" s="10"/>
-      <c r="AK1004" s="10"/>
-      <c r="AL1004" s="10"/>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:AL1"/>
@@ -41005,47 +40850,47 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4:C23" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4:C22" type="list">
       <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G4:G44" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G4:G43" type="list">
       <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J4:K37" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J4:K36" type="list">
       <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="L4:M36" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="L4:M35" type="list">
       <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="N4:N27 Q4:R20 AC4:AE28 AH4:AH31 AK4:AK31 R21:R27 AC29:AE30 AE31" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="N4:N26 Q4:R19 AC4:AE27 AH4:AH30 AK4:AK30 R20:R26 AC28:AE29 AE30" type="list">
       <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="S4:S25 U4:U25 W4:W25 Y4:Y25 AA4:AA25" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="S4:S24 U4:U24 W4:W24 Y4:Y24 AA4:AA24" type="list">
       <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="T4:T25 V4:V25 X4:X25 Z4:Z25 AB4:AB25" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="T4:T24 V4:V24 X4:X24 Z4:Z24 AB4:AB24" type="list">
       <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I4:I47" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I4:I46" type="list">
       <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AL4:AL22" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AL4:AL21" type="list">
       <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="O4:P35" type="list">
-      <formula1>#REF!</formula1>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="O4:P34" type="list">
+      <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="Q21:Q29 AL23:AL33 C24:C1004 S26:AB27 N28:N35 R28:AB29 Q30:AB30 Q31:AD31 Q32:AE35 AH32:AH90 AK32:AK33 AK34:AL90 N36:AE36 L37:AE37 J38:AE47 G45:G1004 I48:AE90 I91:AL1004" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="Q20:Q28 AL22:AL32 C23:C1003 S25:AB26 N27:N34 R27:AB28 Q29:AB29 Q30:AD30 Q31:AE34 AH31:AH89 AK31:AK32 AK33:AL89 N35:AE35 L36:AE36 J37:AE46 G44:G1003 I47:AE89 I90:AL1003" type="list">
       <formula1>'xlfile://root/currentdir/[language+training+-+client+exit_bulk+upload+template_2018-07-16_ver_800 (3).xlsx]lov'!#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
